--- a/static/menu_output.xlsx
+++ b/static/menu_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,22 +451,42 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Translated Name (Hindi)</t>
+          <t>Translated Name (Marathi)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Description (Hindi)</t>
+          <t>Description (Marathi)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Ingredients (Hindi)</t>
+          <t>Ingredients (Marathi)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Calories (Hindi)</t>
+          <t>Calories (Marathi)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Translated Name (English)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Description (English)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ingredients (English)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Calories (English)</t>
         </is>
       </c>
     </row>
@@ -483,27 +503,47 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Milk_Tea_346315a8.jpg</t>
+          <t>/static/food_images\user_1\Milk_Tea_6474d307.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>दूध चाय (Doodh Chai)</t>
+          <t>दूध चहा (Doodh Chaha)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>दूध और चाय की पत्तियों से बनी एक लोकप्रिय पेय</t>
+          <t>दूध आणि चहा यांचा मिसळलेला एक लोकप्रिय पेय</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>दूध, चाय की पत्तियां, चीनी, पानी</t>
+          <t>दूध, चहा पाने, साखर, पाणी</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>120-150</t>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Milk Tea</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>A comforting beverage made with tea, milk, and sugar.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>tea, milk, sugar</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -520,25 +560,45 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Black_Tea_e1438ae7.jpg</t>
+          <t>/static/food_images\user_1\Black_Tea_93a82ccf.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>काली चाय</t>
+          <t>काळा चहा</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>एक पारंपरिक और लोकप्रिय चाय जो काली चाय की पत्तियों से बनाई जाती है।</t>
+          <t>एक लोकप्रिय आणि सामान्यतः वापरला जाणारा चहा प्रकार</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>काली चाय की पत्तियां, पानी</t>
+          <t>चहाची पाने, पाणी, (optional) साखर, दूध</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>0-2 (साखर आणि दूध न घातल्यास), 10-20 (साखर आणि/किंवा दूध घातल्यास)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Black Tea</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A type of tea that is oxidized, giving it a stronger flavor and darker color.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Black tea leaves, water</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>0-2</t>
         </is>
@@ -557,27 +617,47 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Lemon_Tea_47d97acf.jpg</t>
+          <t>/static/food_images\user_1\Lemon_Tea_c2542ad6.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>निम्बू चाय</t>
+          <t>लिमон चहा (Limone Chaha)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>एक ताज़ा और स्फूर्तिदायक पेय जिसमें नींबू का रस और चाय का मिश्रण होता है।</t>
+          <t>एक ताजेतवाने पेय जे लिंबू आणि चहाच्या मिश्रणातून बनवले जाते</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>चाय पत्ती, निम्बू का रस, चीनी, पानी</t>
+          <t>चहाची पाने, लिंबू, पाणी, साखर (वैकल्पिक)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>70-120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lemon Tea</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>A refreshing tea infused with lemon flavor</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Black tea, lemon juice, sugar (optional)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2-10</t>
         </is>
       </c>
     </row>
@@ -594,25 +674,45 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Ginger_Tea_d0a22578.jpg</t>
+          <t>/static/food_images\user_1\Ginger_Tea_9cf56663.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>अदरक की चाय (Adrak Ki Chai)</t>
+          <t>आल्याचा चहा (Adhyacha Chaha)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>एक आरामदायक और स्वास्थ्यवर्धक पेय जो अदरक से बनाया जाता है।</t>
+          <t>आल्याच्या ताज्या पानांचे आणि मसाल्यांचे मिश्रण असलेला एक उष्णकटिबंधीय पेय</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>अदरक, चाय की पत्तियाँ, पानी, चीनी/शहद (वैकल्पिक), दूध (वैकल्पिक)</t>
+          <t>आल्याचे तुकडे, चहाची पाने, पाणी, साखर, दूध (वैकल्पिक)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>70-120</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ginger Tea</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A soothing hot beverage made with ginger.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Water, Fresh Ginger, Sugar (optional), Lemon (optional)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>60-120</t>
         </is>
@@ -631,7 +731,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Milk_Coffee_166e86c9.jpg</t>
+          <t>/static/food_images\user_1\Milk_Coffee_30da303d.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -641,15 +741,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>दूध और कॉफी का मिश्रण</t>
+          <t>कॉफी आणि दूध यांचे मिश्रण</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>दूध, कॉफी पाउडर, चीनी (optional)</t>
+          <t>कॉफी, दूध, साखर (वैकल्पिक)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Milk Coffee</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A warm beverage made with coffee and milk.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>coffee, milk, sugar (optional)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>120</t>
         </is>
@@ -668,25 +788,45 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Black_Coffee_c96d0aaa.jpg</t>
+          <t>/static/food_images\user_1\Black_Coffee_2350c550.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ब्लैक कॉफी</t>
+          <t>काळा कॉफी</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>बिना दूध और चीनी के कॉफी का एक कप</t>
+          <t>एक मजबूत आणि तीव्र कॉफी पेय</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>कॉफी</t>
+          <t>कॉफी बीन्स, पाणी</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Black Coffee</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A type of coffee made from roasted coffee beans without adding milk or sugar.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Coffee beans, water</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>0-2</t>
         </is>
@@ -705,17 +845,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Hot_Milk_adbdceb6.jpg</t>
+          <t>/static/food_images\user_1\Hot_Milk_c8ffd2ad.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>गर्म दूध</t>
+          <t>गरम दूध</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>एक गर्म और पौष्टिक पेय जो दूध को गरम करके बनाया जाता है।</t>
+          <t>उबदार आणि पौष्टिक पेय</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -726,6 +866,26 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>50-60</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hot Milk</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A warm and comforting beverage made from milk</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>50-100</t>
         </is>
       </c>
     </row>
@@ -737,30 +897,50 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Butter_Milk_98c9b4ea.jpg</t>
+          <t>/static/food_images\user_1\Butter_Milk_47c2928d.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>छाछ</t>
+          <t>ताक</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>एक पारंपरिक भारतीय पेय जो दही को फेंटकर बनाया जाता है।</t>
+          <t>दही मधून बनवलेले एक पेय</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>दही, पानी, नमक, जीरा पाउडर, काली मिर्च पाउडर</t>
+          <t>दही, पाणी, मीठ</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
+        <is>
+          <t>40-50</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Buttermilk</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A tangy, creamy dairy beverage</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Buttermilk, [sometimes] salt, sometimes flavorings or bacteria culture (e.g., lactic acid bacteria)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>40-50</t>
         </is>
@@ -779,25 +959,45 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Mineral_Water_4784c16c.jpg</t>
+          <t>/static/food_images\user_1\Mineral_Water_b9333d79.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>मिनरल वॉटर</t>
+          <t>खनिज पाणी</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>प्राकृतिक स्रोत से प्राप्त पानी जिसमें विभिन्न खनिज पदार्थ होते हैं।</t>
+          <t>शुद्ध पाण्यातून मिळणारे आरोग्यदायी पेय</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>पानी, प्राकृतिक खनिज (कैल्शियम, मैग्नीशियम, पोटेशियम, बाइकार्बोनेट आदि)</t>
+          <t>खनिजे, पाणी</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Mineral Water</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A type of water containing minerals and other dissolved substances.</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Water, minerals (varies depending on source, typically includes calcium, magnesium, potassium, and bicarbonate)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -816,27 +1016,47 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Cold_Drinks_b1c0a12b.jpg</t>
+          <t>/static/food_images\user_1\Cold_Drinks_ff39c977.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ठंडे पेय</t>
+          <t>थंड पेय</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>प्यास बुझाने वाला एक ताज़ा पेय</t>
+          <t>उन्हाळ्यात शरीराला थंडावा देणारे पेय</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>पानी, चीनी, आइस क्यूब्स, फ्लेवरिंग एजेंट (वैकल्पिक)</t>
+          <t>पाणी, साखर, फ्लेवरिंग्ज (Optional: लेमन, लाइम, कोला, इ.)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0-150</t>
+          <t>50-150</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cold Drinks</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Refreshing beverages served chilled</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Water, sugar, flavorings (varies by type, e.g., cola, lemon, lime), carbon dioxide, preservatives (e.g., sodium benzoate)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -853,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Masala_Cold_Drinks_6aa21643.jpg</t>
+          <t>/static/food_images\user_1\Masala_Cold_Drinks_4ced0387.jpg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -863,15 +1083,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>एक ताज़ा और स्वादिष्ट पेय जो मसालों के साथ बनाया जाता है।</t>
+          <t>एक ताजेतवाने पेय जे मसाल्याच्या मिश्रणाने बनवले जाते</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>निम्बू, पुदीना, अदरक, जीरा, काली मिर्च, शहद, पानी, बर्फ</t>
+          <t>लिंबू, पुदिना, आल्याचा रस, गुळ, काळा मीठ, पाणी, बर्फ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Spiced Cold Drinks</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Refreshing drinks infused with a blend of spices.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Lemon juice, sugar, water, ice, cumin powder, mint leaves, black salt, ginger juice, soda.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>120</t>
         </is>
@@ -890,7 +1130,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Masala_Soda_af9c359d.jpg</t>
+          <t>/static/food_images\user_1\Masala_Soda_bea6afeb.jpg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -900,17 +1140,37 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>एक पारंपरिक भारतीय पेय जिसमें मसालों का स्वाद मिलाया जाता है।</t>
+          <t>एक लोकप्रिय भारतीय पेय जे मसालेदार आणि ताजेतवाने आहे</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>पानी, नींबू का रस, अदरक, पुदीना, जीरा, नमक, काली मिर्च</t>
+          <t>पाणी, सोडियम बायकार्बोनेट, लिंबू रस, आंबा पावडर, हिमालिनी दगड मिठ, चवीनुसार मसाले</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-15</t>
+          <t>35-45</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Spiced Soda</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A fizzy soda infused with a blend of warming spices.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Carbonated water, sugar, ginger, black pepper, cinnamon, cardamom, cloves.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -927,25 +1187,45 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Fresh_Lemon_Soda_5d6cb9ef.jpg</t>
+          <t>/static/food_images\user_1\Fresh_Lemon_Soda_b6f0baa6.jpg</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ताज़ा नींबू सोडा</t>
+          <t>ताजा लेमन सोडा (Tāzā Leman Sōḍā)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>एक ताज़ा पेय जो नींबू के रस और सोडा से बनाया जाता है।</t>
+          <t>एक ताजेतवाने पेय, जे उन्हाळ्यात पिण्यासाठी योग्य आहे.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>नींबू का रस, सोडा, चीनी/शहद, पानी</t>
+          <t>पाणी, लेमन रस, साखर, कार्बन डाय ऑक्साइड, साइट्रिक ऍसिड, प्रिझर्व्हेटिव्ह</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Fresh Lemon Soda</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>A refreshing drink made with lemon juice and soda water</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Lemon juice, soda water, sugar</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>120</t>
         </is>
@@ -964,25 +1244,45 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Fresh_Lemon_Water_c8fe9814.jpg</t>
+          <t>/static/food_images\user_1\Fresh_Lemon_Water_8d377821.jpg</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ताज़ा नींबू पानी</t>
+          <t>ताजे लेमन पाणी</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>नींबू के रस से बना एक ताज़ा और स्वादिष्ट पेय</t>
+          <t>एक ताजेतवाने पेय जे उन्हाळ्यात शरीराला थंडावा देते</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>पानी, नींबू का रस</t>
+          <t>पाणी, ताजे लेमन, (Optional: साखर किंवा मध)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
+        <is>
+          <t>10-20</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Fresh Lemon Water</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>A refreshing drink made with lemon and water</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Water, Lemon Juice</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -991,7 +1291,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Puri Sabji</t>
+          <t>Puri Sabzi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1001,34 +1301,54 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Puri_Sabji_ad7acb58.jpg</t>
+          <t>/static/food_images\user_1\Puri_Sabzi_26a4b02f.jpg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>पूरी सब्जी</t>
+          <t>पुरी सब्जी</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय उत्तर भारतीय नाश्ता जिसमें तली हुई रोटी और सब्जी शामिल है।</t>
+          <t>गोड आणि चटपट्या सब्जी सोबतची तळलेली पुरी</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>आटा, तेल, सब्जी (मिश्रित या विशिष्ट जैसे आलू, मटर), मसाले (जीरा, हल्दी, धनिया पाउडर, गरम मसाला), नमक, पानी।</t>
+          <t>गेहूंगा पीठ, तेल, मीठ, हरभरा, वाटाणे, टोमॅटो, कांदा, हळद, धणे पावडर, गरम मसाला, आल्याचा पेस्ट</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>200-300</t>
+          <t>350-400</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Fried Bread with Vegetables</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>A popular Indian breakfast dish of fried puffed bread served with a spicy vegetable curry.</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Wheat flour, water, oil, salt, vegetables (such as cauliflower, carrots, peas), spices (like cumin, coriander, turmeric), and herbs.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>350-400</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Idli Sabji</t>
+          <t>Idli Sabzi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1038,7 +1358,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Idli_Sabji_a5e11943.jpg</t>
+          <t>/static/food_images\user_1\Idli_Sabzi_c0dc3c9d.jpg</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1048,17 +1368,37 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>दक्षिण भारतीय व्यंजन इडली के साथ परोसी जाने वाली सब्ज़ी</t>
+          <t>एक दक्षिण भारतीय नाश्ता जो इडली आणि भाजीच्या मिश्रणातून बनवला जातो</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>इडली, सब्जी (मिश्रित सब्जियां जैसे कि गाजर, मटर, शिमला मिर्च), तेल, सरसों, जीरा, हल्दी पाउडर, धनिया पाउडर, गरम मसाला, नमक</t>
+          <t>इडली, मिक्स भाज्या (जसे की गाजर, वाटाणे, शिमला मिरच), तेल, मोहरी, हल्दी पावडर, मिरच पावडर, आंबचूर पावडर, चाट मसाला, मीठ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>150-200</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Idli Vegetable Curry or Steamed Rice Cakes with Vegetable Curry</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>A South Indian dish of steamed rice cakes served with a flavorful vegetable curry.</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>idlis (steamed rice cakes), mixed vegetables (e.g., peas, carrots, potatoes), onions, tomatoes, ginger, garlic, curry leaves, mustard seeds, cumin seeds, turmeric, chili powder, garam masala, salt, oil.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>250-300</t>
         </is>
       </c>
     </row>
@@ -1075,25 +1415,45 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Veg_Upama_1a51fa56.jpg</t>
+          <t>/static/food_images\user_1\Veg_Upama_3d58a033.jpg</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>सब्जी उपमा</t>
+          <t>वेज उपमा</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय दक्षिण भारतीय नाश्ता व्यंजन।</t>
+          <t>एक लोकप्रिय दक्षिण भारतीय नाश्ता</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>सूजी, सब्जियां (गाजर, मटर, प्याज), तेल, सरसों, जीरा, हल्दी पाउडर, नमक, हरी मिर्च।</t>
+          <t>रवा, भाज्या (गाजर, वाट्या मिरची, वाट्या कोबी), मोहरी, उडीद डाळ, चिरा हिरव्या मिरच्या, कोथिंबीर, तेल, मीठ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
+        <is>
+          <t>150-200</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Vegetable Upma</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>A popular South Indian breakfast dish made with semolina and vegetables.</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Semolina, Onions, Carrots, Green Chilies, Tomatoes, Mustard seeds, Cumin seeds, Turmeric powder, Salt, Oil, Fresh Coriander leaves.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>150-200</t>
         </is>
@@ -1112,25 +1472,45 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Plain_Paratha_c547efa3.jpg</t>
+          <t>/static/food_images\user_1\Plain_Paratha_4a5e653e.jpg</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>सादा पराठा</t>
+          <t>साधा पराठा (Sādha Parāṭhā)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>एक प्रकार का तली हुई रोटी जो मैदा से बनाई जाती है</t>
+          <t>एक प्रकारचा भारतीय ब्रेड जो मैदा आणि पाण्यापासून बनवला जातो</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>मैदा, पानी, नमक, घी</t>
+          <t>मैदा, पाणी, मीठ, तेल</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
+        <is>
+          <t>120-150</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Plain Flatbread</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>A type of flatbread commonly eaten in South Asia, made from whole wheat flour and water.</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Whole wheat flour, water, salt, ghee or oil</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>120-150</t>
         </is>
@@ -1149,25 +1529,45 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Aloo_Paratha_With_Curd_331126d6.jpg</t>
+          <t>/static/food_images\user_1\Aloo_Paratha_With_Curd_6d04f7f9.jpg</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>आलू पराठा दही के साथ</t>
+          <t>आलू पराठा विथ दही</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>आलू के भरने वाला पराठा जो दही के साथ परोसा जाता है</t>
+          <t>एक लोकप्रिय भारतीय नाश्ता ज्यामध्ये बटाट्याने भरलेला पराठा आणि दही यांचा समावेश आहे.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>आटा, आलू, दही, प्याज, जीरा, गरम मसाला, धनिया पत्ती, नमक, तेल</t>
+          <t>गव्हाचे पीठ, बटाटे, दही, कांदे, आले, हळद, मिरची पावडर, गरम मसाला, तेल</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Potato Paratha with Yogurt</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>A popular Indian flatbread stuffed with spiced potatoes, served with a side of yogurt.</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Whole wheat flour, potatoes, yogurt, ghee or oil, cumin seeds, coriander powder, garam masala, salt, green chilies, cilantro.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -1186,34 +1586,54 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Bread_Toast_(Butter)_22befc8f.jpg</t>
+          <t>/static/food_images\user_1\Bread_Toast_(Butter)_c316574b.jpg</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>मक्खन टोस्ट</t>
+          <t>टोस्ट ब्रेड (बटर)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>मक्खन के साथ टोस्टेड ब्रेड</t>
+          <t>लोणी लावलेली टोस्ट ब्रेड</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ब्रेड, मक्खन</t>
+          <t>ब्रेड, लोणी</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>150-200</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Buttered Toast</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Toasted bread with butter spread on top</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>bread, butter</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>150</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bread Toast (Butter Jam)</t>
+          <t>Bread Toast ( Butter Jam)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1223,25 +1643,45 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Bread_Toast_(Butter_Jam)_3d71a019.jpg</t>
+          <t>/static/food_images\user_1\Bread_Toast_(_Butter_Jam)_d5a1ac1d.jpg</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ब्रेड टोस्ट (मक्खन जैम)</t>
+          <t>ब्रेड टोस्ट (बटर जॅम)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>मक्खन और जैम के साथ टोस्टेड ब्रेड</t>
+          <t>टोस्ट केलेल्या ब्रेडवर बटर आणि जॅम लावून बनवलेला नाश्ता</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ब्रेड, मक्खन, जैम</t>
+          <t>ब्रेड, बटर, जॅम</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Bread Toast with Butter and Jam</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Toasted bread spread with butter and jam.</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Bread, Butter, Jam</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>200-250</t>
         </is>
@@ -1250,7 +1690,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Veg Sandwitch</t>
+          <t>Veg Sandwich</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1260,34 +1700,54 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Veg_Sandwitch_0d1ae29b.jpg</t>
+          <t>/static/food_images\user_1\Veg_Sandwich_20db0209.jpg</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>वेज सैंडविच</t>
+          <t>भाजी सँडविच</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>सब्जियों से भरा हुआ टोस्टेड ब्रेड</t>
+          <t>शाकाहारी सँडविच</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ब्रेड, सब्जियां (जैसे प्याज, टमाटर, खीरा, शिमला मिर्च), पनीर, मक्खन, मायोनेज़, सलाद पत्ता</t>
+          <t>ब्रेड, भाज्या (काकरी, टोमॅटो, कांदा, शिमला मिरची), चीज, लोणी, चटणी</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>250-300</t>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Vegetable Sandwich</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>A sandwich filled with various vegetables.</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Bread, Lettuce, Tomato, Cucumber, Carrot, Beetroot, Mayonnaise, Cheese</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>300</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cheese Sandwitch</t>
+          <t>Cheese Sandwich</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1297,34 +1757,54 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Cheese_Sandwitch_d018151e.jpg</t>
+          <t>/static/food_images\user_1\Cheese_Sandwich_a539be0b.jpg</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>चीज़ सैंडविच</t>
+          <t>चीज सँडविच</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>दो रोटियों के बीच पिघला हुआ चीज़ और अन्य सामग्री का एक स्वादिष्ट संयोजन।</t>
+          <t>दोन ब्रेडच्या तुकड्यांमध्ये चीज भरून बनवलेला एक लोकप्रिय सँडविच.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ब्रेड, चीज़, मक्खन, सब्जियां (वैकल्पिक)</t>
+          <t>ब्रेड, चीज, लोणी/मार्गरीन, (वैकल्पिक: टोमॅटो, काकडी, सलाद पाने)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>300-400</t>
+          <t>250-300</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cheese Sandwich</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>A sandwich filled with melted cheese.</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Bread, cheese, butter/margarine (optional)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>250-300</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Egg Sandwitch</t>
+          <t>Egg Sandwich</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1334,34 +1814,54 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Egg_Sandwitch_8ae4cfb9.jpg</t>
+          <t>/static/food_images\user_1\Egg_Sandwich_8aa5125e.jpg</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>एग सैंडविच</t>
+          <t>अंडा सँडविच</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय नाश्ता जिसमें अंडे और ब्रेड शामिल हैं।</t>
+          <t>अंडे आणि विविध पदार्थ यांचे सँडविच</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>अंडे, ब्रेड, मक्खन, नमक, मिर्च पाउडर, टोमेटो, प्याज, सलाद पत्ता</t>
+          <t>ब्रेड, अंडे, लोणी, मायोनेज, टोमॅटो, काकडी, पनीर</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>300</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Egg Sandwich</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>A sandwich filled with a fried or boiled egg.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bread, egg, butter or mayonnaise, cheese (optional), vegetables (optional)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>250-300</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chicken Sandwitch</t>
+          <t>Chicken Sandwich</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1371,25 +1871,45 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Chicken_Sandwitch_30ebbccf.jpg</t>
+          <t>/static/food_images\user_1\Chicken_Sandwich_e919d6ce.jpg</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>चिकन सैंडविच</t>
+          <t>चिकन सँडविच</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय सैंडविच जिसमें ग्रिल्ड चिकन, सब्जियां और सॉस होते हैं।</t>
+          <t>एक लोकप्रिय सँडविच ज्यामध्ये कोंबडीचे मांस असते.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>चिकन ब्रेस्ट, ब्रेड, मक्खन, लेट्यूस, टमाटर, प्याज, मेयोनीज, सरसों का सॉस</t>
+          <t>चिकन ब्रेस्ट, ब्रेड, लेट्यूस, टोमॅटो, मेयोनेझ, मोहरी, चीज, लोणचे</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
+        <is>
+          <t>350-400</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Chicken Sandwich</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>A sandwich featuring grilled or fried chicken as the main protein.</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Chicken breast, bread, lettuce, tomato, mayonnaise, cheese, pickles</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>350</t>
         </is>
@@ -1408,27 +1928,47 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Boiled_Egg_f3bd279f.jpg</t>
+          <t>/static/food_images\user_1\Boiled_Egg_d8a3b42d.jpg</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>उबला हुआ अंडा (Ubala Hua Anda)</t>
+          <t>उकडलेले अंडे (Ukadalele Ande)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>एक साधारण और पौष्टिक खाद्य पदार्थ जो अंडे को उबालकर बनाया जाता है।</t>
+          <t>उकळून शिजवलेले अंडे</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>अंडा (Anda)</t>
+          <t>अंडे (Ande)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>70</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Boiled Egg</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>A hard-cooked egg with a firm, rubbery texture.</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Egg</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1445,25 +1985,45 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Egg_Omlette_(Plain)_b8db0bf5.jpg</t>
+          <t>/static/food_images\user_1\Egg_Omlette_(Plain)_f3f50f5b.jpg</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>आमलेट (सादा)</t>
+          <t>अंडा ऑम्लेट (सामान्य)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>एक सरल और स्वादिष्ट अंडे का व्यंजन।</t>
+          <t>एक साधारण आणि लोकप्रिय अंड्यापासून बनवलेला नाश्ता</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>अंडे, नमक, मिर्च पाउडर, तेल</t>
+          <t>अंडी, मीठ, तेल/मक्खन</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
+        <is>
+          <t>70-80</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Plain Egg Omelette</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>A simple folded egg dish made from beaten eggs.</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Eggs, Salt, Butter/Oil</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>70-80</t>
         </is>
@@ -1482,27 +2042,47 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Egg_Omlette_(Masala)_35e300a6.jpg</t>
+          <t>/static/food_images\user_1\Egg_Omlette_(Masala)_78df7acd.jpg</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>अंडा आमलेट (मसाला)</t>
+          <t>अंडा ओम्लेट (मसाला)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>मसालेदार अंडों का तला हुआ पकवान</t>
+          <t>एक लोकप्रिय भारतीय नाश्ता पर्याय जो मसालेदार अंड्यांनी बनवला जातो</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>अंडे, प्याज, टमाटर, मिर्च पाउडर, गरम मसाला, नमक, तेल</t>
+          <t>अंडी, कांदा, टोमॅटो, मिरची, हळद, लाल मिरची पावडर, काळा मिरची पावडर, मीठ, तेल, कोथिंबीर</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>150-200</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Masala Egg Omelette</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>A flavorful Indian-style omelette made with eggs and spices.</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>eggs, onions, tomatoes, chilies, garlic, ginger, turmeric, cumin powder, coriander powder, salt, oil</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -1519,27 +2099,47 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Bread_Omlette_e825217a.jpg</t>
+          <t>/static/food_images\user_1\Bread_Omlette_0e43c95f.jpg</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ब्रेड ऑमलेट (Bread Omlette) -&gt; ब्रेड आमलेट</t>
+          <t>ब्रेड ओम्लेट</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय नाश्ता विकल्प जिसमें आमलेट और ब्रेड का संयोजन होता है।</t>
+          <t>एक लोकप्रिय नाश्ता ज्यामध्ये ओम्लेट आणि ब्रेड यांचा मेळ आहे.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>अंडे, ब्रेड स्लाइस, प्याज, टमाटर, मिर्च पाउडर, नमक, मक्खन या तेल</t>
+          <t>अंडी, ब्रेड, कांदा, टोमॅटो, मिरची, मीठ, मिर pepper पावडर, लोणी</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>250-300</t>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Bread Omelette</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>A fluffy omelette wrapped around toasted bread.</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>eggs, bread, butter, salt, pepper, optional: vegetables (e.g. onions, tomatoes, bell peppers), cheese</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>250</t>
         </is>
       </c>
     </row>
@@ -1556,27 +2156,47 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Bread_+_Masala_Omelette_7ee26376.jpg</t>
+          <t>/static/food_images\user_1\Bread_+_Masala_Omelette_d813d16b.jpg</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ब्रेड + मसाला ऑमलेट</t>
+          <t>ब्रेड + मसाला ऑम्लेट</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>एक स्वादिष्ट और लोकप्रिय नाश्ता विकल्प जिसमें मसालेदार ऑमलेट के साथ ब्रेड शामिल है।</t>
+          <t>एक लोकप्रिय नाश्ता पर्याय जो फ्लफी ऑम्लेट आणि टोस्टेड ब्रेड एकत्र करतो</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ब्रेड, अंडे, प्याज, टमाटर, मिर्च पाउडर, गरम मसाला, नमक, मक्खन/तेल</t>
+          <t>अंडी, ब्रेड, मिरची पावडर, हळद, मीठ, तेल, कांदा, टोमॅटो</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>350-400</t>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Bread with Spiced Omelet</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>A flavorful omelet with spices served with toasted bread.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Bread, eggs, masala spice blend, salt, oil/butter</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>350</t>
         </is>
       </c>
     </row>
@@ -1593,27 +2213,47 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Egg_Pouch_5a76ca04.jpg</t>
+          <t>/static/food_images\user_1\Egg_Pouch_cd849e1b.jpg</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>अंडा पाउच</t>
+          <t>अंडा पाउच (Anda Paauch)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>एक स्वादिष्ट और आसानी से बनने वाला नाश्ता जिसमें अंडे को ब्रेड या आटे के पाउच में पकाया जाता है।</t>
+          <t>एक लोकप्रिय स्ट्रीट फूड ज्यामध्ये उकडलेले अंडे मसालेदार पिठात भरलेले असतात.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>अंडे, ब्रेड, आटा, नमक, मिर्च पाउडर, तेल</t>
+          <t>अंडे, पिठ, मिरच पावडर, हल्दी पावडर, चाट मसाला, तेल, मीठ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>200</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Egg Pouch</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>A savory pastry filled with eggs and various fillings.</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Eggs, flour, butter, salt, pepper, optional fillings (e.g., vegetables, meat, cheese)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>250</t>
         </is>
       </c>
     </row>
@@ -1630,219 +2270,339 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Egg_Water_Pouch_9bb90ed1.jpg</t>
+          <t>/static/food_images\user_1\Egg_Water_Pouch_ff365910.jpg</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>अंडा पानी पाउच</t>
+          <t>अंडे पाण्याची पाउच (Ande Paani Chi Pauch)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>एक पारंपरिक भारतीय व्यंजन जिसमें उबले हुए अंडों को मसालेदार पानी में मिलाकर बनाया जाता है।</t>
+          <t>पाण्यात शिजवलेले अंडे असलेली पाउच</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>अंडे, पानी, नमक, काली मिर्च, जीरा, हल्दी पाउडर, लाल मिर्च पाउडर, धनिया पत्ती</t>
+          <t>अंडे, पाणी, चव वाढवणारे पदार्थ (अंडे, पाणी, salt)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>70-80</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Egg Drop Soup</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>A traditional Chinese soup made with beaten eggs and chicken broth.</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>eggs, chicken broth, ginger, scallions, soy sauce, sesame oil, salt</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>70-80</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Jeera Rice</t>
+          <t>American Corn Salt &amp; Piper</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>79.00</t>
+          <t>169.00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Jeera_Rice_d8e36ed4.jpg</t>
+          <t>/static/food_images\user_1\American_Corn_Salt_&amp;_Piper_0f9601c6.jpg</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>जीरा राइस</t>
+          <t>अमेरिकन कॉर्न सॉल्ट अँड पिपर</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>जीरा और मसालों के साथ पके हुए चावल</t>
+          <t>एक लोकप्रिय स्ट्रीट फूड ज्यामध्ये ताज्या मक्याचे दाणे चवदार मसाल्याने शिजवले जातात.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>चावल, जीरा, घी, हल्दी पाउडर, नमक, काली मिर्च पाउडर, धनिया पत्ती</t>
+          <t>मका, मीठ, मिरपूड, लोणी/तेल</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>150-200</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>American Corn Salt &amp; Pepper</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>A flavorful American-style corn dish seasoned with salt and pepper.</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>corn, salt, black pepper, butter (or oil)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>150</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Neem Rice</t>
+          <t>Crispy Chilly Baby Corn</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>110.00</t>
+          <t>169.00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Neem_Rice_0fabc6fb.jpg</t>
+          <t>/static/food_images\user_1\Crispy_Chilly_Baby_Corn_450997e3.jpg</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>नीम चावल</t>
+          <t>कुरकुरीत मिरची बेबी कॉर्न</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>नीम के पत्तों के साथ पकाया हुआ चावल एक स्वादिष्ट और पौष्टिक व्यंजन है।</t>
+          <t>एक चवदार आणि कुरकुरीत मकईचा रस्त्यावरील खाद्यपदार्थ</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>चावल, नीम के पत्ते, सरसों का तेल, जीरा, हींग, हल्दी पाउडर, नमक</t>
+          <t>बेबी कॉर्न, मिरची पावडर, आलूचे पीठ, मोहरी, चिरलेला कांदा, चिरलेली टोमॅटो, हळद, लाल मिरची पावडर, सोया सॉस, व्हिनेगर, तेल, मीठ</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>150-200</t>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Crispy Chilly Baby Corn</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>A spicy, crunchy snack made from deep-fried baby corn.</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>baby corn, chillies, vegetable oil, garlic, ginger, soy sauce, vinegar, salt, pepper, cornflour</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>220</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lemon Rice</t>
+          <t>Veg Manchurian</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>109.00</t>
+          <t>139.00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Lemon_Rice_b8a7308d.jpg</t>
+          <t>/static/food_images\user_1\Veg_Manchurian_21493cb8.jpg</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>नींबू चावल (Nīmbū Cāwal)</t>
+          <t>वेज मंचूरियन</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>नींबू और मसालों के साथ स्वादिष्ट चावल।</t>
+          <t>चिनी शैलीतील शाकाहारी मंचूरियन डिश</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>चावल, नींबू का रस, घी, सरसों के दाने, उड़द दाल, करी पत्ता, हींग, हल्दी पाउडर, नमक, चीनी।</t>
+          <t>वेजिटेबल्स, गव्हाचा मैदा, कॉर्नफ्लॉवर, तेल, सोया सॉस, टोमॅटो सॉस, आले, लसूण, हिरव्या कांदे, मिरच पावडर, मीठ</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>250-300 kcal.</t>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Vegetable Manchurian</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>A Chinese-inspired dish made from deep-fried vegetable dumplings in a savory sauce.</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Mixed vegetables (cabbage, carrots, bell peppers), wheat flour, cornflour, soy sauce, vinegar, ginger, garlic, chili sauce, sesame oil, scallions.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>220</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ghee Rice</t>
+          <t>Chilly Paneer</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>110.00</t>
+          <t>169.00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Ghee_Rice_3fc7e683.jpg</t>
+          <t>/static/food_images\user_1\Chilly_Paneer_af98c286.jpg</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>घी चावल</t>
+          <t>चिल्ली पनीर</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>घी और मसालों के साथ पकाए गए चावल</t>
+          <t>एक लोकप्रिय चिनी-भारतीय डिश ज्यामध्ये पनीर मिरचीच्या सॉसमध्ये शिजवला जातो.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>चावल, घी, जीरा, अदरक, लहसुन, हल्दी पाउडर, धनिया पाउडर, गरम मसाला पाउडर, नमक</t>
+          <t>पनीर, मिरची पावडर, लसुन, आले, कांदा, टोमॅटो, शिमला मिरची, सोया सॉस, टोमॅटो सॉस, तेल, मीठ, काळी मिरची पावडर</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Chili Paneer</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>A spicy Indian dish made with marinated paneer in a chili sauce.</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>paneer (Indian cheese), bell peppers, onions, garlic, ginger, soy sauce, vinegar, chili sauce, tomato sauce, oil, salt, pepper, green chilies</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>320</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Veg Fried Rice</t>
+          <t>Chilly Mushroom</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>119.00</t>
+          <t>169.00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Veg_Fried_Rice_00bb2dd5.jpg</t>
+          <t>/static/food_images\user_1\Chilly_Mushroom_96c8dcdb.jpg</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>सब्जी फ्राइड राइस</t>
+          <t>चिली मशरूम</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>सब्जियों और मसालों के साथ पकाया हुआ चावल।</t>
+          <t>एक लोकप्रिय चीनी-भारतीय डिश मशरूम आणि मिरचीच्या तिखट मिश्रणात शिजवली जाते</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>चावल, सब्जियां (गाजर, मटर, शिमला मिर्च), प्याज, लहसुन, सोया सॉस, तेल, नमक, मसाले।</t>
+          <t>मशरूम, कांदे, टोमॅटो, हरी मिरची, आले-लहकूण पेस्ट, सोया सॉस, व्हिनेगर, तेल, मीठ, काळी मिरची पावडर</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>250-300</t>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Chili Mushroom</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>A spicy dish made with sautéed mushrooms and chili peppers.</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>mushrooms, chili peppers, onions, garlic, ginger, soy sauce, olive oil, salt, pepper</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>250</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Egg Fried Rice</t>
+          <t>French Fry</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1852,330 +2612,510 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Egg_Fried_Rice_6e55ed8d.jpg</t>
+          <t>/static/food_images\user_1\French_Fry_a1d64b31.jpg</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>अंडा फ्राइड राइस (Anda Fried Rice)</t>
+          <t>फ्रेंच फ्राय (French Fry translated to Marathi is "फ्रेंच फ्राय", however, commonly known as "फ्राय" or "पातळ फ्राय")</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय चीनी व्यंजन जिसमें पके हुए चावल, अंडे, और विभिन्न सब्जियों को मिलाकर तला जाता है।</t>
+          <t>तळलेले आणि कुरकुरीत बटाट्याचे पातळ तुकडे</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>पके हुए चावल, अंडे, प्याज, शिमला मिर्च, गाजर, मटर, सोया सॉस, विनेगर, तेल, नमक, काली मिर्च पाउडर</t>
+          <t>बटाटे, तेल, मीठ, मिरची पावडर</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>350-400</t>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>French Fry</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>A long, thin strip of fried potato.</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Potato, Vegetable oil, Salt.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>320</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Chicken Fried Rice</t>
+          <t>Mushroom Salt &amp; Piper</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>149.00</t>
+          <t>159.00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Chicken_Fried_Rice_6d60f744.jpg</t>
+          <t>/static/food_images\user_1\Mushroom_Salt_&amp;_Piper_c7471756.jpg</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>चिकन फ्राइड राइस (Chicken Fried Rice)</t>
+          <t>मशरूम सॉल्ट अँड पेपर</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>यह एक लोकप्रिय चीनी-प्रेरित व्यंजन है जिसमें पके हुए चावल, चिकन और विभिन्न सब्जियों को मिलाकर तला जाता है।</t>
+          <t>एक चवदार आणि सोपे तयार होणारे मशरूमचे पदार्थ</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>पके हुए चावल, चिकन, प्याज, शिमला मिर्च, गाजर, मटर, सोया सॉस, सिरसों का तेल, लहसुन, अदरक, नमक, काली मिर्च</t>
+          <t>मशरूम, मीठ, मिरपूड, लोणी, लसुन, काळी मिरपूड</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Mushroom Salt and Pepper</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>A savory dish featuring mushrooms seasoned with salt and pepper.</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>mushrooms, salt, black pepper, vegetable oil</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Non</t>
+          <t>Paneer 65</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Veg Mix Fried Rice - 159.00</t>
+          <t>169.00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Non_2b102360.jpg</t>
+          <t>/static/food_images\user_1\Paneer_65_8bf0b702.jpg</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>नान</t>
+          <t>पनीर ६५</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>एक प्रकार की भारतीय रोटी जो आटे से बनाई जाती है</t>
+          <t>एक लोकप्रिय भारतीय डिश ज्यामध्ये पनीर मसालेदार टोमॅटो सॉसमध्ये तळला जातो</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>आटा, पानी, नमक, खमीर, तेल, दही</t>
+          <t>पनीर, टोमॅटो, कांदा, मिरची पावडर, हळद, धणे पावडर, गरम मसाला, तेल, मीठ, लसुन, आल्याचा पेस्ट</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>120-150</t>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Paneer 65</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>A popular Indian dish made with marinated paneer (Indian cheese) cubes cooked in a spicy sauce.</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>paneer, vegetable oil, onions, ginger, garlic, tomato puree, red chili powder, garam masala, cumin powder, coriander powder, salt, lemon juice</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>320</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>American Corn Salt &amp; Piper</t>
+          <t>Onion Pakoda</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>169.00</t>
+          <t>119.00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\American_Corn_Salt_&amp;_Piper_47b2e946.jpg</t>
+          <t>/static/food_images\user_1\Onion_Pakoda_8cbc957c.jpg</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>अमेरिकन कॉर्न सॉल्ट एंड पिपर</t>
+          <t>कांदा पकोडा</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय स्ट्रीट फूड जिसमें भुट्टे हुए मक्के को नमक और काली मिर्च के साथ परोसा जाता है।</t>
+          <t>कांद्याच्या तळलेल्या पाकोड्यांचा एक लोकप्रिय भारतीय नाश्ता</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>मक्का, नमक, काली मिर्च</t>
+          <t>कांदे, बेसन, हळद, लाल मिरची पाउडर, धणे पाउडर, जिरे, चपटा हिरवा मिरचा, मीठ, तेल</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>80-100</t>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Onion Fritters</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Crispy fried onion slices coated in a spicy batter.</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Onions, gram flour, spices, oil, salt, chilies, garlic, ginger</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>320</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Crispy Chilly Baby Corn</t>
+          <t>Veg Pakoda</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>169.00</t>
+          <t>119.00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Crispy_Chilly_Baby_Corn_4db18a86.jpg</t>
+          <t>/static/food_images\user_1\Veg_Pakoda_7808ad7f.jpg</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>क्रिस्पी चिली बेबी कॉर्न</t>
+          <t>वेज पकोडा</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>स्वादिष्ट और कुरकुरे बेबी कॉर्न जो तीखे चिली के साथ पकाए गए हैं</t>
+          <t>तळलेले मिक्स व्हेज स्नॅक्स</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>बेबी कॉर्न, चिली सॉस, लहसुन, अदरक, सोया सॉस, विनेगर, कॉर्नफ्लावर, तेल, नमक, काली मिर्च</t>
+          <t>मिक्स व्हेज (कांदे, बटाटे, गाजर, शिमला मिरची), बेसन, हळद, लाल मिरची पाउडर, धणे पाउडर, गरम मसाला, मीठ, तेल</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Vegetable Fritters</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Crispy fried fritters made with mixed vegetables and spices.</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Mixed vegetables (onions, carrots, cabbage, bell peppers), gram flour, green chilies, ginger, garlic, spices (cumin, coriander, turmeric, red chili powder), salt, oil</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>150-200</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Veg Manchurian</t>
+          <t>PhulGori Pakoda</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>139.00</t>
+          <t>129.00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Veg_Manchurian_45611be8.jpg</t>
+          <t>/static/food_images\user_1\PhulGori_Pakoda_e0708426.jpg</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>वेज मंचूरियन</t>
+          <t>फुलगोरी पकोडा</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय चीनी-प्रेरित सब्जी व्यंजन।</t>
+          <t>फुलगोरीच्या पिठापासून बनवलेले कुरकुरीत तळलेले तोंडवळे</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>मक्के का आटा, सब्जियां (गाजर, शिमला मिर्च, पत्ता गोभी), प्याज, अदरक, लहसुन, सोया सॉस, टोमेटो सॉस, सिरका, चीनी, नमक, काली मिर्च पाउडर।</t>
+          <t>फुलगोरी पिठ, बेसन, कांदा, हळद, लाल मिरची पावडर, अजवायन, तळण्यासाठी तेल</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>250-300</t>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Flower-shaped Gram Fritters</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Crispy fried gram flour flowers.</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Gram flour, water, salt, baking soda, green chilies, cumin seeds, coriander seeds, asafoetida, oil.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>120</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Chilly Paneer</t>
+          <t>Chilly Kobi</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>159.00</t>
+          <t>139.00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Chilly_Paneer_e0874db5.jpg</t>
+          <t>/static/food_images\user_1\Chilly_Kobi_a27792ff.jpg</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>मिर्ची पनीर</t>
+          <t>चिली कोबी</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय चीनी-भारतीय व्यंजन जिसमें पनीर को मिर्च और मसालों के साथ पकाया जाता है।</t>
+          <t>एक लोकप्रिय चीनी-भारतीय भाजी व्यंजन</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>पनीर, मिर्च, प्याज, शिमला मिर्च, लहसुन, अदरक, सोया सॉस, टोमेटो सॉस, विनेगर, तेल, नमक, काली मिर्च।</t>
+          <t>कोबी, मिरच पावडर, सोया सॉस, व्हिनेगर, आलूचे पीठ, तेल, लसुन, आले, कांदा</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>250-300</t>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Cauliflower in Chili Sauce</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>A spicy and savory dish made with cauliflower in a chili-based sauce.</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Cauliflower, chilies, garlic, ginger, soy sauce, vinegar, oil, salt, sugar, cornstarch.</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>120</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Chilly Mushroom</t>
+          <t>Veg Noodles</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>169.00</t>
+          <t>139.00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Chilly_Mushroom_d2f5fc17.jpg</t>
+          <t>/static/food_images\user_1\Veg_Noodles_06ce28b9.jpg</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>मिर्ची मशरूम</t>
+          <t>भाजी नूडल्स</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय सब्जी व्यंजन जिसमें मशरूम को मिर्ची मसाले में पकाया जाता है।</t>
+          <t>शाकाहारी नूडल्सची चवदार आणि आरोग्यदायी आवृत्ती</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>मशरूम, प्याज, टमाटर, मिर्ची पाउडर, हल्दी पाउडर, धनिया पाउडर, जीरा, लहसुन, अदरक, तेल, नमक</t>
+          <t>नूडल्स, भाज्या (गाजर, मिरची, कोबी), तेल, सोया सॉस, आले-लसूण पेस्ट, हळद, मीठ</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>350-400</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Vegetable Noodles</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>A stir-fried noodle dish made with mixed vegetables.</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>noodles, vegetables (e.g., cabbage, carrots, bell peppers, onions), cooking oil, soy sauce, garlic, ginger, salt, pepper.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>350</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>French Fry</t>
+          <t>Veg Mix Noodles</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>129.00</t>
+          <t>139.00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\French_Fry_8b9a0a64.jpg</t>
+          <t>/static/food_images\user_1\Veg_Mix_Noodles_0d6561db.jpg</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>फ्रेंच फ्राइज</t>
+          <t>व्हेज मिक्स नूडल्स</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>तली हुई पतली आलू की स्ट्रिप्स</t>
+          <t>भाज्या आणि नूडल्सचे मिश्रण</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>आलू, तेल, नमक, काली मिर्च</t>
+          <t>नूडल्स, गाजर, मटार, कांदे, कोबी, मशरूम, सोया सॉस, आले-लसण पेस्ट, मिरची सॉस, तेल</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Vegetable Mix Noodles</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>A savory dish made with a mix of vegetables and noodles.</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>noodles, mixed vegetables (carrots, cabbage, beans, onions), cooking oil, soy sauce, garlic, ginger.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>350-400</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mushroom Salt &amp; Piper</t>
+          <t>Non Veg Mix Noodles</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2185,691 +3125,1071 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Mushroom_Salt_&amp;_Piper_167d449f.jpg</t>
+          <t>/static/food_images\user_1\Non_Veg_Mix_Noodles_257804c4.jpg</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>मशरूम सॉल्ट एंड पाइपर</t>
+          <t>नॉन व्हेग मिक्स नूडल्स</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय व्यंजन जिसमें मशरूम को नमक और काली मिर्च के साथ पकाया जाता है</t>
+          <t>मांसाहारी पदार्थांसह तयार केलेले मिश्रित नूडल्स</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>मशरूम, नमक, काली मिर्च, मक्खन या तेल</t>
+          <t>नूडल्स, चिकन, अंडे, डुक्कराचे मांस, कांदे, टोमॅटो, मिरची, सोया सॉस, व्हिनेगर, तेल</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>70-80</t>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Non-Vegetarian Mixed Noodles</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>A savory dish made with mixed noodles, vegetables, and various non-vegetarian protein sources.</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>noodles, chicken, shrimp, beef, vegetables (carrots, cabbage, onions), soy sauce, chili sauce, garlic, ginger, sesame oil.</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>550</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Paneer Pakoda</t>
+          <t>Veg Hakka Noodles</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>159.00</t>
+          <t>149.00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Paneer_Pakoda_ab0f3deb.jpg</t>
+          <t>/static/food_images\user_1\Veg_Hakka_Noodles_fa43eec2.jpg</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>पनीर पकौड़ा</t>
+          <t>वेज हक्का नूडल्स</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>तले हुए पनीर के टुकड़ों का एक लोकप्रिय भारतीय व्यंजन।</t>
+          <t>चवदार आणि मसालेदार शाकाहारी नूडल्स</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>पनीर, बेसन, प्याज, शिमला मिर्च, हल्दी पाउडर, लाल मिर्च पाउडर, गरम मसाला, नमक, तेल।</t>
+          <t>नूडल्स, तेल, कांदा, टोफू, बगळा मिरची, गाजर, कोबी, हक्का मसाला, सोया सॉस, व्हिनेगर, आले-लसण पेस्ट</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Vegetable Hakka Noodles</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Stir-fried noodles with mixed vegetables in a savory sauce.</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>noodles, vegetables (cabbage, carrots, bell peppers, onions), oil, garlic, ginger, soy sauce, vinegar, chili sauce, salt, pepper, spring onions.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>350-400</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Onion Pakoda</t>
+          <t>Veg Boiled Corn Chat</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>119.00</t>
+          <t>110.00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Onion_Pakoda_98931211.jpg</t>
+          <t>/static/food_images\user_1\Veg_Boiled_Corn_Chat_b0afb2cd.jpg</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>प्याज पकौड़ा</t>
+          <t>व्हेज बॉइल्ड कॉर्न चाट</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>तले हुए प्याज के पकौड़े जो चाय के समय परोसे जाते हैं।</t>
+          <t>उकडलेल्या मक्याच्या दाण्यांनी बनवलेला एक लोकप्रिय आणि चवदार स्ट्रीट फूड</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>प्याज, बेसन, हल्दी पाउडर, लाल मिर्च पाउडर, धनिया पाउडर, जीरा, बारीक कटा हुआ हरा धनिया, नमक, तेल</t>
+          <t>उकडलेले मक्याचे दाणे, कांदा, टोमॅटो, काकडी, मिरची पावडर, चाट मसाला, नींबू रस, मीठ, पुदीना</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Vegetable Boiled Corn Chat</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>A flavorful and healthy snack made with boiled corn and mixed vegetables.</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>boiled corn, potatoes, onions, tomatoes, carrots, peas, tamarind chutney, green chutney, cumin powder, chaat masala, salt, lemon juice</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>150</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Veg Pakoda</t>
+          <t>Peanut Masala</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>119.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Veg_Pakoda_ac37300b.jpg</t>
+          <t>/static/food_images\user_1\Peanut_Masala_27b00d0f.jpg</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>वेज पकौड़ा</t>
+          <t>शेंदा मसाला</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>तले हुए सब्जियों का एक लोकप्रिय भारतीय व्यंजन</t>
+          <t>शेंगदाण्यापासून बनवलेला एक लोकप्रिय भारतीय नाश्ता</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>बेसन, प्याज, आलू, शिमला मिर्च, गाजर, पत्तागोभी, हरी मिर्च, अदरक, लहसुन, हल्दी पाउडर, लाल मिर्च पाउडर, जीरा, धनिया पत्ती, तेल</t>
+          <t>शेंगदाणे, तेल, मसाला पावडर, मीठ, हळद, लाल मिरची पावडर, चिरा</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Peanut Spice Mix</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>A flavorful blend of spices with peanuts</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>peanuts, coriander seeds, cumin seeds, fennel seeds, red chili powder, garam masala powder, salt, turmeric powder</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>170</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Phul Gori Pakoda</t>
+          <t>Chilly Chicken (Bone)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>129.00</t>
+          <t>179.00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Phul_Gori_Pakoda_f2242e1f.jpg</t>
+          <t>/static/food_images\user_1\Chilly_Chicken_(Bone)_1f4ca9fb.jpg</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>फूल गोरी पकौड़ा</t>
+          <t>चिली चिकन (हाडासह)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय दक्षिण एशियाई व्यंजन जिसमें फूल गोभी के फूलों को मसालेदार बेसन में लपेट कर तला जाता है।</t>
+          <t>मसालेदार आणि चवदार चिकन डिश</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>फूल गोभी, बेसन, प्याज, टमाटर, मिर्च पाउडर, हल्दी पाउडर, गरम मसाला, जीरा, हींग, तेल, नमक</t>
+          <t>चिकन (हाडासह), मिरची पावडर, लसुन, आले, सोया सॉस, टोमॅटो सॉस, व्हिनेगर, तेल, मीठ, मिरची</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Spicy Chicken with Bones</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>A flavorful and spicy dish made with marinated chicken cooked in a chili-based sauce.</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>chicken with bones, chili peppers, garlic, ginger, soy sauce, vinegar, sugar, salt, pepper, cooking oil</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>320</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Chilly Kobi</t>
+          <t>Chilly Chicken (Bone Less)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>139.00</t>
+          <t>189.00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Chilly_Kobi_0562f5fa.jpg</t>
+          <t>/static/food_images\user_1\Chilly_Chicken_(Bone_Less)_e1e013d3.jpg</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>मिर्ची कोबी (Mirchi Kobi)</t>
+          <t>चिली चिकन (बोनलेस)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय चीनी-भारतीय सब्जी जिसमें मिर्च और पत्तागोभी को मसालेदार सॉस में पकाया जाता है।</t>
+          <t>एक लोकप्रिय चीनी-भारतीय फ्यूजन डिश ज्यामध्ये मिरची सॉसमध्ये शिजवलेले बोनलेस चिकन असते.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>पत्तागोभी, मिर्च, प्याज, लहसुन, अदरक, सोया सॉस, विनेगर, तेल, नमक, काली मिर्च</t>
+          <t>बोनलेस चिकन, मिरची पॉड, कांदा, टोमॅटो, सोया सॉस, व्हिनेगर, मिरची सॉस, तेल, लसूण, आले, हळद पावडर, मीठ, काळी मिरी</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Spicy Chicken (Boneless)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>A flavorful and spicy dish made with marinated boneless chicken cooked in a chili-based sauce.</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>chicken breast or thighs, red chili peppers, garlic, ginger, soy sauce, vinegar, vegetable oil, salt, black pepper, sugar, cornflour.</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Veg Noodles</t>
+          <t>Garlic Chicken</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>139.00</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Veg_Noodles_c0cdb867.jpg</t>
+          <t>/static/food_images\user_1\Garlic_Chicken_fab4c6b1.jpg</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>सब्जी नूडल्स</t>
+          <t>लसूण चिकन (Lasoon Chicken)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>सब्जियों और नूडल्स से बना एक लोकप्रिय चीनी-प्रेरित व्यंजन</t>
+          <t>लसूण आणि मसाल्यांनी शिजवलेले चिकन</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>नूडल्स, सब्जियां (गाजर, शिमला मिर्च, प्याज, गोभी), तेल, सोया सॉस, अदरक-लहसुन का पेस्ट, नमक, काली मिर्च</t>
+          <t>चिकन, लसूण, कांदा, मिरची पावडर, हळद, तेल, मीठ, काळी मिरी</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Garlic Chicken</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>A savory dish made with chicken cooked in a flavorful garlic sauce.</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>chicken breast, garlic, butter, olive oil, salt, black pepper, garlic powder, chicken broth, heavy cream</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Veg Mix Noodles</t>
+          <t>Ginger Chicken</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>139.00</t>
+          <t>189.00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Veg_Mix_Noodles_043a1322.jpg</t>
+          <t>/static/food_images\user_1\Ginger_Chicken_7eddc4b3.jpg</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>सब्जी मिक्स नूडल्स</t>
+          <t>आले चिकन</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>सब्जियों और नूडल्स का स्वादिष्ट मिश्रण</t>
+          <t>आल्याच्या तिखट चवीसह बनवलेले एक लोकप्रिय चिकन डिश</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>नूडल्स, गाजर, शिमला मिर्च, प्याज, मटर, सोया सॉस, तेल, नमक, काली मिर्च</t>
+          <t>चिकन, आले, लसूण, सोया सॉस, व्हिनेगर, तेल, मिरची पावडर, मीठ, काळी मिरी</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Ginger Chicken</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>A spicy and savory dish made with chicken cooked in a ginger-based sauce.</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Chicken breast or thighs, ginger, garlic, soy sauce, sugar, vegetable oil, salt, black pepper, scallions</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>320</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Non Veg Mix Noodles</t>
+          <t>Dragon Chicken</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>159.00</t>
+          <t>219.00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Non_Veg_Mix_Noodles_2f891066.jpg</t>
+          <t>/static/food_images\user_1\Dragon_Chicken_da7ac32e.jpg</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>नॉन वेज मिक्स नूडल्स</t>
+          <t>ड्रॅगन चिकन</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>एक स्वादिष्ट और मसालेदार नूडल्स जिसमें सब्जियों और मांस का मिश्रण होता है।</t>
+          <t>एक लोकप्रिय चीनी-भारतीय फ्यूजन डिश जी मसालेदार आणि चवदार आहे</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>नूडल्स, चिकन, प्याज, टमाटर, शिमला मिर्च, गाजर, पत्तागोभी, सोया सॉस, टोमैटो सॉस, मिर्च सॉस, नमक, काली मिर्च</t>
+          <t>चिकन, मिरची पावडर, सोया सॉस, व्हिनेगर, आल्याचा पेस्ट, लसणाचा पेस्ट, कांदा, टोमॅटो, मिरची, तेल, मीठ, मिरची</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Dragon Chicken</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>A spicy Sichuan-inspired dish made with chicken, chili peppers, and vegetables.</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>chicken breast, chili peppers, garlic, ginger, soy sauce, vinegar, cornstarch, vegetable oil, scallions, sesame oil</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Veg Hakka Noodles</t>
+          <t>Barley Chicken</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>149.00</t>
+          <t>219.00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Veg_Hakka_Noodles_0b851fe9.jpg</t>
+          <t>/static/food_images\user_1\Barley_Chicken_ede241ce.jpg</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>वेज हक्का नूडल्स</t>
+          <t>बार्ली चिकन</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>सब्जियों और मसालों के साथ पकाए गए चाइनीज शैली के नूडल्स।</t>
+          <t>बार्ली आणि चिकनचे मिश्रण असलेला एक पौष्टिक आणि चवदार पदार्थ</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>नूडल्स, सब्जियां (गाजर, शिमला मिर्च, प्याज), तेल, सोया सॉस, विनेगर, अदरक, लहसुन, अजवायन, काली मिर्च पाउडर, नमक।</t>
+          <t>चिकन, बार्ली, कांदा, टोमॅटो, मिरची, हळद, लाल मिरची पावडर, जीरा, धने पावडर, तेल, मीठ</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Barley Chicken</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>A hearty dish made with chicken and barley grains.</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>chicken breast, pearl barley, onion, carrot, celery, chicken broth, olive oil, salt, pepper</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Veg Boiled Corn Chat</t>
+          <t>Chicken Pakoda (Bone)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>110.00</t>
+          <t>169.00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Veg_Boiled_Corn_Chat_1c6244d3.jpg</t>
+          <t>/static/food_images\user_1\Chicken_Pakoda_(Bone)_79003afa.jpg</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>सब्जी उबला हुआ मक्का चाट</t>
+          <t>चिकन पकोडा (हाडांसह)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>एक स्वादिष्ट और स्वास्थ्यवर्धक स्ट्रीट फूड जिसमें उबले हुए मक्के को सब्जियों के साथ मिलाकर बनाया जाता है।</t>
+          <t>बाहेरून कुरकुरीत आणि आतून रसदार असलेले मसालेदार चिकन पकोडे</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>उबला हुआ मक्का, टमाटर, प्याज, खीरा, गाजर, हरी मिर्च, धनिया पत्ती, नींबू का रस, भुना हुआ जीरा, चाट मसाला, नमक</t>
+          <t>चिकन (हाडांसह), बेसन, कांदा, टोमॅटो, आले, लसूण, हळद, मिरची पावडर, गरम मसाला, अजवायन, तेल, मीठ</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Chicken Fritters (with bone)</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Crispy fried chicken pieces with spices.</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Chicken pieces with bone, gram flour, onions, garlic, ginger, spices (cumin, coriander, garam masala, turmeric, red chili powder), salt, lemon juice, oil</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>220</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Peanut Masala</t>
+          <t>Chicken Pakoda (Boneless)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>189.00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Peanut_Masala_d80d739a.jpg</t>
+          <t>/static/food_images\user_1\Chicken_Pakoda_(Boneless)_ec1379f0.jpg</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>मूंगफली मसाला</t>
+          <t>चिकन पकोडा (बोनलेस)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय भारतीय नाश्ता जिसमें मसालेदार मूंगफली शामिल है</t>
+          <t>तळलेले आणि मसालेदार बोनलेस चिकनचे तुकडे</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>मूंगफली, तेल, नमक, लाल मिर्च पाउडर, जीरा पाउडर, गरम मसाला पाउडर, चाट मसाला पाउडर, अमचूर पाउडर</t>
+          <t>बोनलेस चिकन, बेसन, मिरची पावडर, हळद, अजवायन, आले-लहसूण पेस्ट, मीठ, तेल</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Chicken Fritters (Boneless)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Crispy fried boneless chicken pieces.</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Chicken breast or thighs, gram flour, onions, ginger, garlic, green chilies, spices (cumin, coriander, garam masala), salt, lemon juice, oil for frying.</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>320</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Chilly Chicken (Bone)</t>
+          <t>Fish Chilly</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>179.00</t>
+          <t>229.00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Chilly_Chicken_(Bone)_e24782ce.jpg</t>
+          <t>/static/food_images\user_1\Fish_Chilly_22d6587c.jpg</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>मिर्ची चिकन (हड्डी सहित)</t>
+          <t>मासे चिंचडी (Māse Ciñcaḍī)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>एक मसालेदार और स्वादिष्ट चिकन व्यंजन जिसमें हड्डी सहित चिकन पकाया जाता है।</t>
+          <t>चिंचडी पद्धतीने बनवलेला माशांचा एक लोकप्रिय आणि चवदार पदार्थ</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>चिकन (हड्डी सहित), मिर्च पाउडर, लहसुन, अदरक, प्याज, टमाटर, तेल, नमक, गरम मसाला</t>
+          <t>मासे, कांदे, टोमॅटो, हिरव्या मिरच्या, आले, लसूण, सोया सॉस, टोमॅटो सॉस, चिली सॉस, मिरच पावडर, तवा मसाला, तेल, मीठ</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>250-300</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Fish Chili</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>A spicy stir-fry dish made with fish and chili peppers.</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Fish, chili peppers, onions, garlic, ginger, soy sauce, vinegar, oil, salt, pepper</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>250</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Chilly Chicken (Bone Less)</t>
+          <t>Fish Finger</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>189.00</t>
+          <t>210.00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Chilly_Chicken_(Bone_Less)_9be58eff.jpg</t>
+          <t>/static/food_images\user_1\Fish_Finger_c5a3264e.jpg</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>मिर्ची चिकन (बोनलेस)</t>
+          <t>फिश फिंगर</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>एक मसालेदार और स्वादिष्ट चिकन व्यंजन जिसमें मिर्ची का तड़का होता है।</t>
+          <t>बॅटर्ड फिशचा एक लोकप्रिय नाश्ता</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>चिकन ब्रेस्ट (बोनलेस), मिर्च पाउडर, लहसुन, अदरक, प्याज, टमाटर, सोया सॉस, विनेगर, जैतून का तेल, नमक, काली मिर्च पाउडर</t>
+          <t>मासे, मैदा, ब्रेड क्रम्ब्स, अंडी, मोहरी, मीठ, मिरपाउडर</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>200-250</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Fish Finger</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>A processed food made from fish coated in breadcrumbs.</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Fish, Breadcrumbs, Wheat Flour, Water, Salt, Vegetable Oil</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>250</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Garlic Chicken</t>
+          <t>Chilly Prawn</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Garlic_Chicken_09421edd.jpg</t>
+          <t>/static/food_images\user_1\Chilly_Prawn_fde6d8f8.jpg</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>लहसुन चिकन (Lahsun Chicken)</t>
+          <t>चिंटे झींगा (Chinte Zhimga)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>लहसुन की सुगंध और स्वाद से भरपूर एक लोकप्रिय चिकन व्यंजन।</t>
+          <t>चिंटे मिरची आणि झींग्यांनी बनवलेला एक चवदार आणि मसालेदार पदार्थ</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>चिकन, लहसुन, तेल, नमक, काली मिर्च, अदरक, सोया सॉस, शहद, सिरका</t>
+          <t>झींगा, चिंटे मिरची, लसून, आले, कांदा, टोमॅटो, मिरची पावडर, हळद पावडर, जिरे पावडर, धने पावडर, मोहरी, तेल</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Spicy Shrimp</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>A spicy dish made with succulent prawns</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Prawns, Red Chilly, Garlic, Ginger, Onion, Tomato, Chili Sauce, Soy Sauce, Vinegar, Oil, Salt, Pepper</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>250</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ginger Chicken</t>
+          <t>Barley Prawn</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>189.00</t>
+          <t>279.00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Ginger_Chicken_a94e3630.jpg</t>
+          <t>/static/food_images\user_1\Barley_Prawn_b7cceae1.jpg</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>अदरक चिकन (Adarak Chikan)</t>
+          <t>जवा झींगे (Java Zhinge) / जव बार्ली झींगे (Barley Prawn)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>अदरक के साथ पकाया हुआ स्वादिष्ट चिकन व्यंजन</t>
+          <t>बार्लीसह शिजवलेले कोळंबीचे चवदार मिश्रण</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>चिकन, अदरक, लहसुन, प्याज, शिमला मिर्च, सोया सॉस, तेल, नमक, काली मिर्च</t>
+          <t>कोळंबी, जवा, कांदा, टोमॅटो, मिरची पावडर, हळद, मोहरी, तेल, मीठ, काळी मिरी</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Barley Prawn</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>A Chinese soup dish made with prawns and barley.</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>prawns, barley, ginger, garlic, scallions, chicken or pork stock</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>250</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Dragon Chicken</t>
+          <t>Golden Fried Prawn</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>219.00</t>
+          <t>259.00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Dragon_Chicken_90b23c9b.jpg</t>
+          <t>/static/food_images\user_1\Golden_Fried_Prawn_6f70b356.jpg</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ड्रैगन चिकन</t>
+          <t>सोनेरी तळलेले झिंगे</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय चीनी-प्रेरित व्यंजन जिसमें मसालेदार और कुरकुरा चिकन होता है।</t>
+          <t>एक लोकप्रिय आणि चवदार समुद्री खाद्यपदार्थ</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>चिकन, प्याज, शिमला मिर्च, लहसुन, अदरक, सोया सॉस, टोमेटो सॉस, मिर्च सॉस, तेल, नमक, काली मिर्च, अजवायन।</t>
+          <t>झिंगे, मैदा, ब्रेडिंग मसाला, तेल, मीठ, मिरची पाउडर, लसूण पाउडर, पाणी</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Golden Fried Shrimp</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Crispy fried shrimp with a golden batter coating.</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Shrimp, flour, eggs, breadcrumbs, vegetable oil, salt, pepper, garlic powder, paprika</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>220</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Barley Chicken</t>
+          <t>Chicken Lollipop</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>219.00</t>
+          <t>229.00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Barley_Chicken_2fb8956c.jpg</t>
+          <t>/static/food_images\user_1\Chicken_Lollipop_5aa903ae.jpg</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>जौ चिकन (Barley Chicken)</t>
+          <t>चिकन लॉलीपॉप</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>जौ और मसालों के साथ पकाया हुआ स्वादिष्ट चिकन</t>
+          <t>एक लोकप्रिय चवदार आणि कुरकुरीत खाद्यपदार्थ</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>चिकन, जौ, प्याज, टमाटर, अदरक, लहसुन, हल्दी पाउडर, धनिया पाउडर, जीरा पाउडर, गरम मसाला पाउडर, नमक, तेल</t>
+          <t>चिकन, मैदा, अंडी, ब्रेड क्रम्ब्स, मिरच पावडर, लसुन पावडर, काळी मिरी, तेल</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>120-150</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Chicken Lollipop</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>A crispy fried chicken snack on a stick.</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>chicken breast, cornflour, egg, breadcrumbs, vegetable oil, garlic, ginger, salt, pepper, soy sauce.</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>120-150</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Chicken Pakoda (Bone)</t>
+          <t>Chicken 65</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>169.00</t>
+          <t>179.00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Chicken_Pakoda_(Bone)_5727cc76.jpg</t>
+          <t>/static/food_images\user_1\Chicken_65_ae063c3c.jpg</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>चिकन पकौड़ा (हड्डी सहित)</t>
+          <t>चिकन ६५</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>कुरकुरे और स्वादिष्ट चिकन पकौड़ा जो हड्डी सहित बनाया जाता है।</t>
+          <t>एक लोकप्रिय दक्षिण भारतीय तळलेले चिकन डिश</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>चिकन (हड्डी सहित), बेसन, प्याज, अदरक-लहसुन का पेस्ट, मिर्च पाउडर, गरम मसाला, नमक, तेल</t>
+          <t>चिकन, दही, मिरची पावडर, हळद, लसुन, आले, कोथिंबीर, बेसन, तेल, मीठ</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Chicken Sixty Five</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>A popular Indian restaurant-style deep-fried chicken dish.</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>chicken breast or thighs, flour, cornflour, egg, ginger, garlic, red chili peppers, cumin, coriander, garam masala, salt, oil</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>320</t>
         </is>
@@ -2878,7 +4198,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Chicken Pakoda (Boneless)</t>
+          <t>Sezwan Fried Rice</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2888,173 +4208,273 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Chicken_Pakoda_(Boneless)_8de3394b.jpg</t>
+          <t>/static/food_images\user_1\Sezwan_Fried_Rice_3f70db83.jpg</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>चिकन पकौड़ा (बोनलेस)</t>
+          <t>सेव्हन फ्राइड राइस</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>तले हुए मसालेदार बोनलेस चिकन के टुकड़े</t>
+          <t>एक चवदार आणि मसालेदार तांदूळ डिश</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>बोनलेस चिकन, बेसन, प्याज, अदरक, लहसुन, मिर्च पाउडर, गरम मसाला, नमक, तेल</t>
+          <t>तांदूळ, सेव्हन सॉस, कांदा, टोमॅटो, मिरची, सोया सॉस, व्हिनेगर, तेल, मीठ, मिरपुड</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Sichuan Fried Rice</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>A spicy fried rice dish originating from Sichuan province, typically made with a mixture of vegetables, meat or seafood, and chili peppers.</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Cooked rice, vegetable oil, onions, garlic, ginger, Sichuan peppercorns, chili peppers, soy sauce, vinegar, scallions, eggs, meat or seafood (e.g., chicken, shrimp), salt</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>450</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Fish Chilly</t>
+          <t>Mix Veg</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>229.00</t>
+          <t>149.00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Fish_Chilly_8d86b63b.jpg</t>
+          <t>/static/food_images\user_1\Mix_Veg_f8f649c6.jpg</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>मछली चिली</t>
+          <t>मिश्र भाज्या</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय चीनी-भारतीय व्यंजन जिसमें मछली को तीखे मिर्च में पकाया जाता है।</t>
+          <t>विविध भाज्यांचे मिश्रण</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>मछली, मिर्च, प्याज, लहसुन, अदरक, सोया सॉस, टोमेटो सॉस, शिमला मिर्च, तेल, नमक, काली मिर्च।</t>
+          <t>बटाटा, गाजर, वाटाणे, शिमला मिरची, टोमॅटो, कांदा, मका</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Mixed Vegetables</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>A medley of sautéed vegetables</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Carrots, Peas, Cauliflower, Potatoes, Onions, Bell Peppers</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Fish Finger</t>
+          <t>Special Veg</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>210.00</t>
+          <t>169.00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Fish_Finger_313035e3.jpg</t>
+          <t>/static/food_images\user_1\Special_Veg_f63715d3.jpg</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>मछली फिंगर</t>
+          <t>स्पेशल वेज</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय बचपन का पसंदीदा खाद्य पदार्थ जो मछली के टुकड़ों को ब्रेडिंग और तलकर बनाया जाता है।</t>
+          <t>विविध भाज्यांचे मिश्रण असलेले एक लोकप्रिय शाकाहारी पर्याय</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>मछली, ब्रेड क्रम्ब्स, आटा, अंडा, नमक, मसाले, तेल</t>
+          <t>बटाटा, वाटाणे, गाजर, मटार, कांदा, टोमॅटो, मिरच पावडर, हळद, आल्याचा पेस्ट, सोया सॉस, तेल</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>200-250</t>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Special Vegetable</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>A mix of sautéed vegetables</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Mixed Vegetables (Peas, Carrots, Corn), Onions, Bell Peppers, Mushrooms, Soy Sauce, Spices</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>150</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Chilly Prawn</t>
+          <t>Paneer Butter Masala</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>179.00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Chilly_Prawn_ae026ffa.jpg</t>
+          <t>/static/food_images\user_1\Paneer_Butter_Masala_c18859ec.jpg</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>मिर्ची प्रॉन</t>
+          <t>पनीर बटर मसाला</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>एक मसालेदार और स्वादिष्ट समुद्री भोजन व्यंजन जिसमें झींगे को मिर्ची के साथ पकाया जाता है।</t>
+          <t>एक लोकप्रिय भारतीय डिश ज्यामध्ये पनीर (भारतीय चीज) मसालेदार टोमॅटो-आधारित सॉसमध्ये शिजवले जाते.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>झींगे, मिर्ची पाउडर, लहसुन, अदरक, प्याज, टमाटर, सोया सॉस, सिरका, तेल</t>
+          <t>पनीर, बटर, टोमॅटो, कांदा, लसूण, आले, क्रीम, मसाले (लवंग, दालचिनी, इ), मीठ, साखर, जल</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Cheese Butter Masala</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>A rich, creamy Indian dish made with marinated paneer cooked in a buttery tomato sauce.</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>paneer (Indian cheese), butter, tomatoes, onions, garlic, ginger, garam masala, cumin, coriander, cayenne pepper, heavy cream, salt, sugar, kasoori methi (dried fenugreek leaves)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>450</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Barley Prawn</t>
+          <t>Paneer Hyderabadi</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>279.00</t>
+          <t>169.00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Barley_Prawn_1640d2e3.jpg</t>
+          <t>/static/food_images\user_1\Paneer_Hyderabadi_777fa406.jpg</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>जौ झींगा (Barley Prawn)</t>
+          <t>पनीर हैदराबादी</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>जौ और झींगे का एक स्वादिष्ट मिश्रण</t>
+          <t>हैदराबादच्या शैलीतील मसालेदार पनीरची रचना</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>जौ, झींगा, प्याज, लहसुन, अदरक, सोया सॉस, शिमला मिर्च, तेल, नमक, काली मिर्च</t>
+          <t>पनीर, टोमॅटो, कांदा, हिरव्या मिरच्या, तेल, दही, बिर्याणी मसाला, जीरा, धनिया पावडर, काळी मिरी, गरम मसाला, नमक</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Hyderabad-style Cottage Cheese</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>A rich and creamy Indian dish made with marinated paneer in a flavorful Hyderabad-inspired sauce.</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>paneer, yogurt, lemon juice, ghee, onions, ginger, garlic, cumin seeds, coriander powder, turmeric, red chili powder, garam masala, salt, Kasuri methi, fresh cilantro</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>320</t>
         </is>
@@ -3063,35 +4483,55 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Golden Fried Prawn</t>
+          <t>Paneer Masala</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>259.00</t>
+          <t>169.00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Golden_Fried_Prawn_e1b230e0.jpg</t>
+          <t>/static/food_images\user_1\Paneer_Masala_7095601e.jpg</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>सुनहरा तला हुआ झींगा</t>
+          <t>पनीर मसाला</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>स्वादिष्ट झींगे को सुनहरा होने तक तलकर परोसा जाता है</t>
+          <t>एक लोकप्रिय भारतीय डिश ज्यामध्ये पनीर मसालेदार टोमॅटो-आधारित ग्रेव्हीमध्ये शिजवला जातो.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>झींगा, आटा, ब्रेडिंग मिश्रण, अंडा, तेल, नमक, काली मिर्च, लहसुन पाउडर, पापrika</t>
+          <t>पनीर, टोमॅटो, कांदा, मिरच पावडर, धणे पावडर, गरम मसाला, क्रीम, तेल, मीठ, काळी मिरी</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Cheese Masala</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>A rich and creamy Indian dish made with marinated cheese cubes in a spicy masala sauce.</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>paneer (Indian cheese), onions, garlic, ginger, tomatoes, red chili powder, garam masala, cumin powder, coriander powder, turmeric powder, salt, butter, oil, cream, fresh cilantro</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>320</t>
         </is>
@@ -3100,72 +4540,112 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Chicken Lollipop</t>
+          <t>Paneer Dopiyaza</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>229.00</t>
+          <t>169.00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Chicken_Lollipop_9a47f9ee.jpg</t>
+          <t>/static/food_images\user_1\Paneer_Dopiyaza_406ce8fb.jpg</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>चिकन लॉलीपॉप</t>
+          <t>पनीर दोपियाजा</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय चीनी व्यंजन जिसमें चिकन को विशेष तरीके से पकाकर लॉलीपॉप के आकार में परोसा जाता है।</t>
+          <t>पनीर आणि कांद्याची सुवासिक आणि चवदार सब्जी</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>चिकन, आटा, मिर्च पाउडर, अंडा, ब्रेड क्रम्ब्स, सोया सॉस, विनेगर, अदरक-लहसुन का पेस्ट, तेल</t>
+          <t>पनीर, कांदे, टोमॅटो, आले, लसुन, मिरच पावडर, हळद, लाल मिरच पावडर, गरम मसाला, क्रीम, तेल, मीठ</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>120-150</t>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Paneer Do Pyaza</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>A rich and creamy Indian dish made with paneer, onions, and a blend of spices.</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>paneer, onions, bell peppers, tomatoes, garlic, ginger, cumin seeds, coriander powder, garam masala, turmeric, red chili powder, yogurt, oil, salt</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Chicken 65</t>
+          <t>Sahi Paneer</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>179.00</t>
+          <t>169.00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Chicken_65_e055f871.jpg</t>
+          <t>/static/food_images\user_1\Sahi_Paneer_5c72d228.jpg</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>चिकन 65</t>
+          <t>सहि पनीर</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>एक लोकप्रिय दक्षिण भारतीय तली हुई चिकन व्यंजन।</t>
+          <t>मलाईदार आणि मसालेदार पनीरची एक लोकप्रिय भारतीय डिश</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>चिकन, आटा, मिर्च पाउडर, गरम मसाला, लहसुन, अदरक, अंडा, ब्रेड क्रम्ब्स, तेल</t>
+          <t>पनीर, टोमॅटो, कांदा, क्रीम, मिरची पावडर, हल्दी, गरम मसाला, तेल, मीठ</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Royal Cheese</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>A rich and creamy Indian dish made with paneer in a flavorful sauce.</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>paneer, cream, tomato puree, butter, onion, ginger, garlic, garam masala, cumin powder, coriander powder, cayenne pepper, salt, sugar</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>320</t>
         </is>
@@ -3174,81 +4654,121 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sezwan Fried Rice</t>
+          <t>Aloo Kobi Masala</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>189.00</t>
+          <t>149.00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Sezwan_Fried_Rice_ef7c769f.jpg</t>
+          <t>/static/food_images\user_1\Aloo_Kobi_Masala_b9705f50.jpg</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>सेवज़न फ्राइड राइस</t>
+          <t>आलू कोबी मसाला (Aloo Kobi Masala)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>एक मसालेदार चीनी-भारतीय व्यंजन जिसमें चावल, सब्जियां और सेवज़न सॉस मिलाया जाता है।</t>
+          <t>बटाटा आणि कोबी यांचे सुवासिक मसालेदार मिश्रण</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>चावल, सेवज़न सॉस, प्याज, शिमला मिर्च, गाजर, मटर, लहसुन, अदरक, सोया सॉस, विनेगर, तेल, नमक, काली मिर्च</t>
+          <t>बटाटे, कोबी, कांदे, टोमॅटो, हळद, धनिया पाउडर, गरम मसाला, लाल मिरची पाउडर, तेल, मीठ, कोथिंबीर</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Potato and Cabbage Masala</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>A flavorful Indian dish made with potatoes and cabbage in a rich, spicy sauce.</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>potatoes, cabbage, onions, ginger, garlic, tomatoes, vegetable oil, cumin seeds, coriander powder, turmeric powder, red chili powder, garam masala, salt</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>220</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Mix Veg</t>
+          <t>Aloo Jeera</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>149.00</t>
+          <t>109.00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Mix_Veg_26ec9106.jpg</t>
+          <t>/static/food_images\user_1\Aloo_Jeera_5181a085.jpg</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>मिक्स वेज</t>
+          <t>आळू जीरा (Aloo Jeera)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>विभिन्न सब्जियों का मिश्रण</t>
+          <t>बटाट्याचे एक लोकप्रिय उत्तर भारतीय पदार्थ जे जीरा आणि विविध मसाल्यांसह शिजवले जाते</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>गाजर, मटर, शिमला मिर्च, प्याज, टमाटर, आलू</t>
+          <t>बटाटे, जीरा, मोहरी, हळद, धणे पावडर, गरम मसाला, मीठ, तेल, लसूण, आले, हिरव्या मिरच्या</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>150-200</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Potato Cumin</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>A popular Indian dish made with potatoes and cumin seeds.</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Potatoes, cumin seeds, onions, garlic, ginger, green chilies, turmeric powder, red chili powder, garam masala powder, salt, oil.</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>150-200</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Special Veg</t>
+          <t>Kadhai Paneer</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3258,321 +4778,45 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/static/food_images\user_1\Special_Veg_5e342988.jpg</t>
+          <t>/static/food_images\user_1\Kadhai_Paneer_1bc4eb44.jpg</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>स्पेशल वेज</t>
+          <t>कढाई पनीर</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>मिश्रित सब्जियों का एक स्वादिष्ट संयोजन</t>
+          <t>कढाईमध्ये शिजवलेले पनीर आणि भाज्या असलेले एक लोकप्रिय उत्तर भारतीय व्यंजन</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>शिमला मिर्च, प्याज, टमाटर, मटर, गाजर, फूलगोभी, हरी मिर्च, अदरक-लहसुन का पेस्ट</t>
+          <t>पनीर, टोमॅटो, कांदा, शिमला मिरची, हळद, लाल मिरची पावडर, गरम मसाला, जीरा, अदरक-लहंण पेस्ट, तेल, मीठ, धनिया पाने</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>150</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Paneer Butter Masala</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>179.00</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>/static/food_images\user_1\Paneer_Butter_Masala_11e84315.jpg</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>पनीर बटर मसाला</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>एक लोकप्रिय उत्तर भारतीय व्यंजन जिसमें पनीर को मक्खन और मसालों में पकाया जाता है।</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>पनीर, मक्खन, टमाटर, प्याज, अदरक, लहसुन, क्रीम, लाल मिर्च पाउडर, गरम मसाला, जीरा, कसूरी मेथी, नमक, तेल</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Paneer Hydrabadi</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>169.00</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>/static/food_images\user_1\Paneer_Hydrabadi_7f273547.jpg</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>पनीर हैदराबादी</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>एक लोकप्रिय उत्तर भारतीय व्यंजन जिसमें पनीर को मसालेदार टमाटर आधारित ग्रेवी में पकाया जाता है।</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>पनीर, टमाटर, प्याज, मिर्च पाउडर, गरम मसाला, जीरा, धनिया पाउडर, हल्दी पाउडर, क्रीम, तेल, नमक</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
           <t>320</t>
         </is>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Paneer Masala</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>169.00</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>/static/food_images\user_1\Paneer_Masala_fc7b0e16.jpg</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>पनीर मसाला</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>एक लोकप्रिय उत्तर भारतीय व्यंजन जिसमें पनीर को मसालेदार टमाटर आधारित ग्रेवी में पकाया जाता है।</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>पनीर, टमाटर, प्याज, मिर्च पाउडर, गरम मसाला, जीरा, धनिया पाउडर, हल्दी पाउडर, तेल, नमक, क्रीम, धनिया पत्ती</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Paneer Dopiyaza</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>169.00</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>/static/food_images\user_1\Paneer_Dopiyaza_17a7aabf.jpg</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>पनीर दो प्याजा</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>पनीर और प्याज की एक लोकप्रिय सब्जी।</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>पनीर, प्याज, तेल, हल्दी, धनिया पाउडर, गरम मसाला, जीरा, लहसुन, अदरक, नमक, काली मिर्च।</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Sahi Paneer</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>169.00</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>/static/food_images\user_1\Sahi_Paneer_632da671.jpg</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>सही पनीर</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>एक लोकप्रिय भारतीय व्यंजन जिसमें पनीर और मसालों की समृद्ध ग्रेवी होती है।</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>पनीर, टमाटर, प्याज, मिर्च पाउडर, गरम मसाला, जीरा, हल्दी, धनिया पाउडर, क्रीम, तेल, नमक</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Aloo Kobi Masala</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>149.00</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>/static/food_images\user_1\Aloo_Kobi_Masala_c58f1ed8.jpg</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>आलू कोबी मसाला</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>एक लोकप्रिय भारतीय सब्जी जिसमें आलू और पत्तागोभी मसालेदार टमाटर आधारित ग्रेवी में पकाए जाते हैं।</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>आलू, पत्तागोभी, प्याज, टमाटर, हरी मिर्च, अदरक, लहसुन, जीरा, हल्दी, धनिया पाउडर, गरम मसाला, लाल मिर्च पाउडर, तेल, नमक</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Aloo Jeera</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>109.00</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>/static/food_images\user_1\Aloo_Jeera_6411e5d4.jpg</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>आलू जीरा</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>जीरा के साथ पकाए गए स्वादिष्ट आलू</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>आलू, जीरा, हल्दी पाउडर, धनिया पाउडर, गरम मसाला पाउडर, नमक, तेल</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Kadhai Paneer</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>169.00</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>/static/food_images\user_1\Kadhai_Paneer_f4ca2952.jpg</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>कढ़ाई पनीर</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>एक लोकप्रिय उत्तर भारतीय व्यंजन जिसमें पनीर और सब्जियों को मसालेदार टमाटर आधारित ग्रेवी में पकाया जाता है।</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>पनीर, प्याज, टमाटर, शिमला मिर्च, धनिया पत्ती, अदरक, लहसुन, जीरा, हल्दी पाउडर, लाल मिर्च पाउडर, गरम मसाला, काली मिर्च पाउडर, नमक, तेल</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Stir-Fried Paneer</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>A popular Indian dish made by stir-frying paneer in a spicy tomato-based sauce.</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>paneer, onions, tomatoes, bell peppers, garlic, ginger, cumin seeds, coriander powder, turmeric powder, red chili powder, garam masala, salt, vegetable oil</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>320</t>
         </is>
